--- a/Future Value of An Annuity Calculator.xlsx
+++ b/Future Value of An Annuity Calculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Au-Yeung\Documents\StreetSmart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua Au-Yeung\Documents\StreetSmart\Finance Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18:C27" si="0">$B$18*(1+$B$15)^(10-A18)</f>
+        <f>B18*(1+$B$15)^(10-A18)</f>
         <v>235.79476910000014</v>
       </c>
     </row>
@@ -635,7 +635,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C19:C27" si="0">B19*(1+$B$15)^(10-A19)</f>
         <v>214.35888100000011</v>
       </c>
     </row>
